--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Antipodean Albatross_Antipodes Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Antipodean Albatross_Antipodes Islands.xlsx
@@ -13281,13 +13281,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED0DB675-B9B0-4387-81B8-47BE81848990}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862C00F2-FEE8-4D8D-8F4A-F80B9762278C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79E5B04-1953-4217-B873-75AE6AB0483D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{149375E7-AAC0-4B59-9B29-1F5A7AB1A357}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66779932-3B7D-4E44-8A2B-E0C1DC22E11B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99C390C5-C220-4EA1-AAE0-15A9C265805F}"/>
 </file>